--- a/rider/monthly/2016_10.xlsx
+++ b/rider/monthly/2016_10.xlsx
@@ -168,16 +168,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -226,16 +226,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E2">
         <v>87.84999999999999</v>
@@ -755,10 +755,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>88.02</v>
@@ -789,10 +789,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D5">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>88.34</v>
